--- a/SensitivityAnalysisSpreadSheets/WeightCheckTime/WeightCheckTime10 Aircraft 9_1_+50%.xlsx
+++ b/SensitivityAnalysisSpreadSheets/WeightCheckTime/WeightCheckTime10 Aircraft 9_1_+50%.xlsx
@@ -77167,6 +77167,9 @@
           <t>Run 1</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>13.95733333333333</v>
+      </c>
       <c r="C2" t="n">
         <v>451.0244444444445</v>
       </c>
@@ -77222,6 +77225,9 @@
           <t>Run 2</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>14.77466666666667</v>
+      </c>
       <c r="C3" t="n">
         <v>467.8533333333334</v>
       </c>
@@ -77277,6 +77283,9 @@
           <t>Run 3</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>14.39533333333333</v>
+      </c>
       <c r="C4" t="n">
         <v>443.7927777777778</v>
       </c>
@@ -77332,6 +77341,9 @@
           <t>Run 4</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>14.57366666666667</v>
+      </c>
       <c r="C5" t="n">
         <v>441.3588888888889</v>
       </c>
@@ -77387,6 +77399,9 @@
           <t>Run 5</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>14.32</v>
+      </c>
       <c r="C6" t="n">
         <v>459.5133333333333</v>
       </c>
@@ -77442,6 +77457,9 @@
           <t>Run 6</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>12.12333333333333</v>
+      </c>
       <c r="C7" t="n">
         <v>429.16</v>
       </c>
@@ -77497,6 +77515,9 @@
           <t>Run 7</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>12.65333333333333</v>
+      </c>
       <c r="C8" t="n">
         <v>436.5683333333333</v>
       </c>
@@ -77552,6 +77573,9 @@
           <t>Run 8</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>12.872</v>
+      </c>
       <c r="C9" t="n">
         <v>443.3755555555555</v>
       </c>
@@ -77607,6 +77631,9 @@
           <t>Run 9</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>13.75216666666667</v>
+      </c>
       <c r="C10" t="n">
         <v>433.8611111111111</v>
       </c>
@@ -77662,6 +77689,9 @@
           <t>Run 10</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>14.222</v>
+      </c>
       <c r="C11" t="n">
         <v>454.6672222222222</v>
       </c>
@@ -77717,6 +77747,9 @@
           <t>Run 11</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>13.3555</v>
+      </c>
       <c r="C12" t="n">
         <v>422.7783333333333</v>
       </c>
@@ -77772,6 +77805,9 @@
           <t>Run 12</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>13.73333333333333</v>
+      </c>
       <c r="C13" t="n">
         <v>445.7266666666667</v>
       </c>
@@ -77827,6 +77863,9 @@
           <t>Run 13</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>12.9935</v>
+      </c>
       <c r="C14" t="n">
         <v>422.4844444444444</v>
       </c>
@@ -77882,6 +77921,9 @@
           <t>Run 14</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>13.80166666666667</v>
+      </c>
       <c r="C15" t="n">
         <v>423.5544444444445</v>
       </c>
@@ -77937,6 +77979,9 @@
           <t>Run 15</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>13.35366666666667</v>
+      </c>
       <c r="C16" t="n">
         <v>426.12</v>
       </c>
@@ -77992,6 +78037,9 @@
           <t>Run 16</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>14.06616666666667</v>
+      </c>
       <c r="C17" t="n">
         <v>453.0661111111111</v>
       </c>
@@ -78047,6 +78095,9 @@
           <t>Run 17</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>13.03983333333333</v>
+      </c>
       <c r="C18" t="n">
         <v>434.4838888888888</v>
       </c>
@@ -78102,6 +78153,9 @@
           <t>Run 18</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>14.81433333333333</v>
+      </c>
       <c r="C19" t="n">
         <v>462.5900000000001</v>
       </c>
@@ -78157,6 +78211,9 @@
           <t>Run 19</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>13.90133333333333</v>
+      </c>
       <c r="C20" t="n">
         <v>441.1266666666667</v>
       </c>
@@ -78212,6 +78269,9 @@
           <t>Run 20</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>13.64783333333333</v>
+      </c>
       <c r="C21" t="n">
         <v>442.8938888888889</v>
       </c>
@@ -78267,6 +78327,9 @@
           <t>Run 21</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>14.06166666666667</v>
+      </c>
       <c r="C22" t="n">
         <v>442.1983333333334</v>
       </c>
@@ -78322,6 +78385,9 @@
           <t>Run 22</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>13.7815</v>
+      </c>
       <c r="C23" t="n">
         <v>446.7594444444444</v>
       </c>
@@ -78377,6 +78443,9 @@
           <t>Run 23</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>13.18683333333333</v>
+      </c>
       <c r="C24" t="n">
         <v>441.065</v>
       </c>
@@ -78432,6 +78501,9 @@
           <t>Run 24</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>14.45966666666667</v>
+      </c>
       <c r="C25" t="n">
         <v>439.2288888888888</v>
       </c>
@@ -78487,6 +78559,9 @@
           <t>Run 25</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>14.81316666666667</v>
+      </c>
       <c r="C26" t="n">
         <v>451.2538888888889</v>
       </c>
@@ -78542,6 +78617,9 @@
           <t>Run 26</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>12.87316666666667</v>
+      </c>
       <c r="C27" t="n">
         <v>453.5427777777778</v>
       </c>
@@ -78597,6 +78675,9 @@
           <t>Run 27</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>11.84466666666667</v>
+      </c>
       <c r="C28" t="n">
         <v>424.0655555555556</v>
       </c>
@@ -78652,6 +78733,9 @@
           <t>Run 28</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>13.00083333333333</v>
+      </c>
       <c r="C29" t="n">
         <v>424.8988888888888</v>
       </c>
@@ -78707,6 +78791,9 @@
           <t>Run 29</t>
         </is>
       </c>
+      <c r="B30" t="n">
+        <v>13.58466666666667</v>
+      </c>
       <c r="C30" t="n">
         <v>433.3466666666666</v>
       </c>
@@ -78761,6 +78848,9 @@
         <is>
           <t>Run 30</t>
         </is>
+      </c>
+      <c r="B31" t="n">
+        <v>15.17483333333333</v>
       </c>
       <c r="C31" t="n">
         <v>453.6344444444445</v>
